--- a/Income/TDY_inc.xlsx
+++ b/Income/TDY_inc.xlsx
@@ -1981,16 +1981,16 @@
         <v>0.3771</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>0.3874</v>
+        <v>0.3871</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>0.3863</v>
+        <v>0.386</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>0.3912</v>
+        <v>0.3909</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>0.3933</v>
+        <v>0.393</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>0.3909</v>
@@ -2483,7 +2483,7 @@
         </is>
       </c>
       <c r="B19" s="0" t="n">
-        <v>0.0</v>
+        <v>0.194</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0.1788</v>
@@ -2609,10 +2609,8 @@
           <t>EBITDA</t>
         </is>
       </c>
-      <c r="B20" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B20" s="0" t="n">
+        <v>604200000.0</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>570000000.0</v>
@@ -3191,10 +3189,8 @@
           <t>EPS (Basic, Consolidated)</t>
         </is>
       </c>
-      <c r="B24" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B24" s="0" t="n">
+        <v>10.9942</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>10.9509</v>
@@ -3519,10 +3515,8 @@
           <t>EPS (Basic, from Continuous Ops)</t>
         </is>
       </c>
-      <c r="B26" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B26" s="0" t="n">
+        <v>10.9942</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>10.9509</v>
@@ -4102,22 +4096,22 @@
         </is>
       </c>
       <c r="B30" s="0" t="n">
-        <v>0.0</v>
+        <v>0.1958</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>0.1862</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>0.193</v>
+        <v>0.1927</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>0.1885</v>
+        <v>0.1882</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>0.1906</v>
+        <v>0.1903</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>0.1911</v>
+        <v>0.1908</v>
       </c>
       <c r="H30" s="0" t="n">
         <v>0.1888</v>
@@ -4229,7 +4223,7 @@
         </is>
       </c>
       <c r="B31" s="0" t="n">
-        <v>0.0</v>
+        <v>0.2163</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>0.2022</v>
